--- a/conception files/LOT_documents/LOT_MODA.xlsx
+++ b/conception files/LOT_documents/LOT_MODA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wu-my.sharepoint.com/personal/katrin_schreiberhuber_wu_ac_at/Documents/01_Research/Explanation_Generation/SENSE/sense-ontology/conception files/LOT_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{C0341AD8-4D50-2444-97E6-F1085C37C97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C8DBE38-FF65-B849-8384-75E00336F10F}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{C0341AD8-4D50-2444-97E6-F1085C37C97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD72B9CD-6664-5E4E-B9CB-0C7299337A29}"/>
   <bookViews>
-    <workbookView xWindow="49780" yWindow="1300" windowWidth="19600" windowHeight="17400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="417">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -1293,6 +1293,12 @@
   </si>
   <si>
     <t>probability that the explanation is correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate </t>
+  </si>
+  <si>
+    <t>Similar to MitigationPlan</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1434,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1459,6 +1465,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1472,7 +1490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1498,17 +1516,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1640,10 +1649,38 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1663,6 +1700,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1868,8 +1909,8 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E60"/>
+    <sheetView topLeftCell="A34" zoomScale="112" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2058,7 +2099,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="70" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="56" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2075,7 +2116,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
@@ -2090,7 +2131,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="7" t="s">
         <v>50</v>
       </c>
@@ -2103,7 +2144,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="56" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2134,10 +2175,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2149,7 +2190,7 @@
     </row>
     <row r="19" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2158,7 +2199,7 @@
     </row>
     <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2170,7 +2211,7 @@
     </row>
     <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -2193,19 +2234,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="10" t="s">
         <v>78</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -2213,23 +2254,23 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="56" t="s">
         <v>84</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2243,7 +2284,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="56" t="s">
         <v>84</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2260,7 +2301,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="56" t="s">
         <v>84</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -2277,7 +2318,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="56" t="s">
         <v>84</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -2294,7 +2335,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="56" t="s">
         <v>100</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2311,464 +2352,478 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="70" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="33" spans="1:5" s="63" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A33" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+      <c r="E33" s="62" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="63" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A34" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="D34"/>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="D34" s="62"/>
+      <c r="E34" s="62" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A35" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="E35" s="59"/>
+    </row>
+    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A36" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="E36" s="59"/>
+    </row>
+    <row r="37" spans="1:5" s="63" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A37" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="E37" s="62" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A38" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="58" t="s">
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+    </row>
+    <row r="39" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A39" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="E39" s="58"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+      <c r="E39" s="60"/>
+    </row>
+    <row r="40" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A40" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="59" t="s">
         <v>275</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+      <c r="E40" s="59"/>
+    </row>
+    <row r="41" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A41" s="59" t="s">
         <v>277</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+      <c r="E41" s="59"/>
+    </row>
+    <row r="42" spans="1:5" s="65" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A42" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="64" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+    <row r="43" spans="1:5" s="65" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A43" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="D43"/>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+      <c r="D43" s="64"/>
+      <c r="E43" s="64" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="63" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A44" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+      <c r="E44" s="62" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="63" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A45" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+      <c r="E45" s="62" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A46" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="59" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
+    <row r="47" spans="1:5" s="63" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A47" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="E47"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="58" t="s">
+      <c r="E47" s="62" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A48" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="D48" s="58" t="s">
+      <c r="D48" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="E48" s="58"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="58" t="s">
+      <c r="E48" s="60"/>
+    </row>
+    <row r="49" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A49" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="60" t="s">
         <v>306</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="60" t="s">
         <v>307</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="61" t="s">
         <v>308</v>
       </c>
-      <c r="E49" s="58"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="58" t="s">
+      <c r="E49" s="60"/>
+    </row>
+    <row r="50" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A50" s="60" t="s">
         <v>254</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="60" t="s">
         <v>309</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="D50" s="58" t="s">
+      <c r="D50" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="E50" s="58"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="58" t="s">
+      <c r="E50" s="60"/>
+    </row>
+    <row r="51" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A51" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="D51" s="58" t="s">
+      <c r="D51" s="60" t="s">
         <v>314</v>
       </c>
-      <c r="E51" s="58"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="58" t="s">
+      <c r="E51" s="60"/>
+    </row>
+    <row r="52" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A52" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="60" t="s">
         <v>315</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="D52" s="58" t="s">
+      <c r="D52" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="E52" s="58"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="58" t="s">
+      <c r="E52" s="60"/>
+    </row>
+    <row r="53" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A53" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="60" t="s">
         <v>318</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D53" s="58" t="s">
+      <c r="D53" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="E53" s="58"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="58" t="s">
+      <c r="E53" s="60"/>
+    </row>
+    <row r="54" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A54" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="D54" s="58" t="s">
+      <c r="D54" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="E54" s="58"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="58" t="s">
+      <c r="E54" s="60"/>
+    </row>
+    <row r="55" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A55" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="60" t="s">
         <v>328</v>
       </c>
-      <c r="E55" s="58"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="58" t="s">
+      <c r="E55" s="60"/>
+    </row>
+    <row r="56" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A56" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="60" t="s">
         <v>329</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58" t="s">
+      <c r="D56" s="60"/>
+      <c r="E56" s="60" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+    <row r="57" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A57" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="59" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="58" t="s">
+    <row r="58" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A58" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="60" t="s">
         <v>337</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="C58" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="D58" s="58" t="s">
+      <c r="D58" s="60" t="s">
         <v>339</v>
       </c>
-      <c r="E58" s="58"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59"/>
-      <c r="B59" t="s">
+      <c r="E58" s="60"/>
+    </row>
+    <row r="59" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A59" s="59"/>
+      <c r="B59" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="59" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60"/>
-      <c r="B60" t="s">
+    <row r="60" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A60" s="59"/>
+      <c r="B60" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="E60"/>
+      <c r="E60" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2782,387 +2837,387 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:H47"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C33" sqref="C2:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="26" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="38.83203125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="47.83203125" style="53" customWidth="1"/>
-    <col min="8" max="16384" width="14.5" style="53"/>
+    <col min="1" max="1" width="14.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="23" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="38.83203125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="47.83203125" style="50" customWidth="1"/>
+    <col min="8" max="16384" width="14.5" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="48" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="23" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="37" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="37" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="23" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.15">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="23" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="23" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="50" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="23" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="23" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="23" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="23" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="23" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="23" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="23" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="23" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3170,7 +3225,7 @@
       <c r="A22" t="s">
         <v>346</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="55" t="s">
         <v>292</v>
       </c>
       <c r="C22" t="s">
@@ -3192,7 +3247,7 @@
       <c r="A23" t="s">
         <v>346</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="55" t="s">
         <v>292</v>
       </c>
       <c r="C23" t="s">
@@ -3216,7 +3271,7 @@
       <c r="A24" t="s">
         <v>332</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="55" t="s">
         <v>333</v>
       </c>
       <c r="C24" t="s">
@@ -3240,7 +3295,7 @@
       <c r="A25" t="s">
         <v>332</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="55" t="s">
         <v>333</v>
       </c>
       <c r="C25" t="s">
@@ -3264,7 +3319,7 @@
       <c r="A26" t="s">
         <v>332</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="55" t="s">
         <v>333</v>
       </c>
       <c r="C26" t="s">
@@ -3310,7 +3365,7 @@
       <c r="A28" t="s">
         <v>254</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="55" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
@@ -3323,14 +3378,14 @@
         <v>121</v>
       </c>
       <c r="F28"/>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="19" t="s">
         <v>369</v>
       </c>
       <c r="H28"/>
     </row>
     <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A29"/>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="55" t="s">
         <v>340</v>
       </c>
       <c r="C29" t="s">
@@ -3348,7 +3403,7 @@
     </row>
     <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A30"/>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="55" t="s">
         <v>340</v>
       </c>
       <c r="C30" t="s">
@@ -3366,7 +3421,7 @@
     </row>
     <row r="31" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A31"/>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="55" t="s">
         <v>340</v>
       </c>
       <c r="C31" t="s">
@@ -3384,7 +3439,7 @@
     </row>
     <row r="32" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A32"/>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="55" t="s">
         <v>114</v>
       </c>
       <c r="C32" t="s">
@@ -3404,7 +3459,7 @@
     </row>
     <row r="33" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A33"/>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="55" t="s">
         <v>114</v>
       </c>
       <c r="C33" t="s">
@@ -3424,7 +3479,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34"/>
-      <c r="B34" s="60"/>
+      <c r="B34" s="55"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
@@ -3434,7 +3489,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35"/>
-      <c r="B35" s="60"/>
+      <c r="B35" s="55"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -3444,7 +3499,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36"/>
-      <c r="B36" s="60"/>
+      <c r="B36" s="55"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -3454,7 +3509,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37"/>
-      <c r="B37" s="60"/>
+      <c r="B37" s="55"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -3464,7 +3519,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38"/>
-      <c r="B38" s="60"/>
+      <c r="B38" s="55"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -3474,7 +3529,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39"/>
-      <c r="B39" s="60"/>
+      <c r="B39" s="55"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
@@ -3484,7 +3539,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40"/>
-      <c r="B40" s="60"/>
+      <c r="B40" s="55"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -3494,7 +3549,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41"/>
-      <c r="B41" s="60"/>
+      <c r="B41" s="55"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -3504,7 +3559,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42"/>
-      <c r="B42" s="60"/>
+      <c r="B42" s="55"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
@@ -3514,7 +3569,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43"/>
-      <c r="B43" s="60"/>
+      <c r="B43" s="55"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
@@ -3524,7 +3579,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44"/>
-      <c r="B44" s="60"/>
+      <c r="B44" s="55"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
@@ -3534,7 +3589,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45"/>
-      <c r="B45" s="60"/>
+      <c r="B45" s="55"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -3544,7 +3599,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46"/>
-      <c r="B46" s="60"/>
+      <c r="B46" s="55"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -3554,7 +3609,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47"/>
-      <c r="B47" s="60"/>
+      <c r="B47" s="55"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -3563,2863 +3618,2863 @@
       <c r="H47"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C48" s="55"/>
+      <c r="C48" s="52"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C49" s="55"/>
+      <c r="C49" s="52"/>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C50" s="55"/>
+      <c r="C50" s="52"/>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C51" s="55"/>
+      <c r="C51" s="52"/>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C52" s="55"/>
+      <c r="C52" s="52"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C53" s="55"/>
+      <c r="C53" s="52"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C54" s="55"/>
+      <c r="C54" s="52"/>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C55" s="55"/>
+      <c r="C55" s="52"/>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C56" s="55"/>
+      <c r="C56" s="52"/>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C57" s="55"/>
+      <c r="C57" s="52"/>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C58" s="55"/>
+      <c r="C58" s="52"/>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C59" s="55"/>
+      <c r="C59" s="52"/>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C60" s="55"/>
+      <c r="C60" s="52"/>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C61" s="55"/>
+      <c r="C61" s="52"/>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C62" s="55"/>
+      <c r="C62" s="52"/>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C63" s="55"/>
+      <c r="C63" s="52"/>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C64" s="55"/>
+      <c r="C64" s="52"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C65" s="55"/>
+      <c r="C65" s="52"/>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C66" s="55"/>
+      <c r="C66" s="52"/>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C67" s="55"/>
+      <c r="C67" s="52"/>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C68" s="55"/>
+      <c r="C68" s="52"/>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C69" s="55"/>
+      <c r="C69" s="52"/>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C70" s="55"/>
+      <c r="C70" s="52"/>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C71" s="55"/>
+      <c r="C71" s="52"/>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C72" s="55"/>
+      <c r="C72" s="52"/>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C73" s="55"/>
+      <c r="C73" s="52"/>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C74" s="55"/>
+      <c r="C74" s="52"/>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C75" s="55"/>
+      <c r="C75" s="52"/>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C76" s="55"/>
+      <c r="C76" s="52"/>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C77" s="55"/>
+      <c r="C77" s="52"/>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C78" s="55"/>
+      <c r="C78" s="52"/>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C79" s="55"/>
+      <c r="C79" s="52"/>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C80" s="55"/>
+      <c r="C80" s="52"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C81" s="55"/>
+      <c r="C81" s="52"/>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C82" s="55"/>
+      <c r="C82" s="52"/>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C83" s="55"/>
+      <c r="C83" s="52"/>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C84" s="55"/>
+      <c r="C84" s="52"/>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C85" s="55"/>
+      <c r="C85" s="52"/>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C86" s="55"/>
+      <c r="C86" s="52"/>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C87" s="55"/>
+      <c r="C87" s="52"/>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C88" s="55"/>
+      <c r="C88" s="52"/>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C89" s="55"/>
+      <c r="C89" s="52"/>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C90" s="55"/>
+      <c r="C90" s="52"/>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C91" s="55"/>
+      <c r="C91" s="52"/>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C92" s="55"/>
+      <c r="C92" s="52"/>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C93" s="55"/>
+      <c r="C93" s="52"/>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C94" s="55"/>
+      <c r="C94" s="52"/>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C95" s="55"/>
+      <c r="C95" s="52"/>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C96" s="55"/>
+      <c r="C96" s="52"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C97" s="55"/>
+      <c r="C97" s="52"/>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C98" s="55"/>
+      <c r="C98" s="52"/>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C99" s="55"/>
+      <c r="C99" s="52"/>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C100" s="55"/>
+      <c r="C100" s="52"/>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C101" s="55"/>
+      <c r="C101" s="52"/>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C102" s="55"/>
+      <c r="C102" s="52"/>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C103" s="55"/>
+      <c r="C103" s="52"/>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C104" s="55"/>
+      <c r="C104" s="52"/>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C105" s="55"/>
+      <c r="C105" s="52"/>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C106" s="55"/>
+      <c r="C106" s="52"/>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C107" s="55"/>
+      <c r="C107" s="52"/>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C108" s="55"/>
+      <c r="C108" s="52"/>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C109" s="55"/>
+      <c r="C109" s="52"/>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C110" s="55"/>
+      <c r="C110" s="52"/>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C111" s="55"/>
+      <c r="C111" s="52"/>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C112" s="55"/>
+      <c r="C112" s="52"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C113" s="55"/>
+      <c r="C113" s="52"/>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C114" s="55"/>
+      <c r="C114" s="52"/>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C115" s="55"/>
+      <c r="C115" s="52"/>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C116" s="55"/>
+      <c r="C116" s="52"/>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C117" s="55"/>
+      <c r="C117" s="52"/>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C118" s="55"/>
+      <c r="C118" s="52"/>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C119" s="55"/>
+      <c r="C119" s="52"/>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C120" s="55"/>
+      <c r="C120" s="52"/>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C121" s="55"/>
+      <c r="C121" s="52"/>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C122" s="55"/>
+      <c r="C122" s="52"/>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C123" s="55"/>
+      <c r="C123" s="52"/>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C124" s="55"/>
+      <c r="C124" s="52"/>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C125" s="55"/>
+      <c r="C125" s="52"/>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C126" s="55"/>
+      <c r="C126" s="52"/>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C127" s="55"/>
+      <c r="C127" s="52"/>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C128" s="55"/>
+      <c r="C128" s="52"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C129" s="55"/>
+      <c r="C129" s="52"/>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C130" s="55"/>
+      <c r="C130" s="52"/>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C131" s="55"/>
+      <c r="C131" s="52"/>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C132" s="55"/>
+      <c r="C132" s="52"/>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C133" s="55"/>
+      <c r="C133" s="52"/>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C134" s="55"/>
+      <c r="C134" s="52"/>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C135" s="55"/>
+      <c r="C135" s="52"/>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C136" s="55"/>
+      <c r="C136" s="52"/>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C137" s="55"/>
+      <c r="C137" s="52"/>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C138" s="55"/>
+      <c r="C138" s="52"/>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C139" s="55"/>
+      <c r="C139" s="52"/>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C140" s="55"/>
+      <c r="C140" s="52"/>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C141" s="55"/>
+      <c r="C141" s="52"/>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C142" s="55"/>
+      <c r="C142" s="52"/>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C143" s="55"/>
+      <c r="C143" s="52"/>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C144" s="55"/>
+      <c r="C144" s="52"/>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C145" s="55"/>
+      <c r="C145" s="52"/>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C146" s="55"/>
+      <c r="C146" s="52"/>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C147" s="55"/>
+      <c r="C147" s="52"/>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C148" s="55"/>
+      <c r="C148" s="52"/>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C149" s="55"/>
+      <c r="C149" s="52"/>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C150" s="55"/>
+      <c r="C150" s="52"/>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C151" s="55"/>
+      <c r="C151" s="52"/>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C152" s="55"/>
+      <c r="C152" s="52"/>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C153" s="55"/>
+      <c r="C153" s="52"/>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C154" s="55"/>
+      <c r="C154" s="52"/>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C155" s="55"/>
+      <c r="C155" s="52"/>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C156" s="55"/>
+      <c r="C156" s="52"/>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C157" s="55"/>
+      <c r="C157" s="52"/>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C158" s="55"/>
+      <c r="C158" s="52"/>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C159" s="55"/>
+      <c r="C159" s="52"/>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C160" s="55"/>
+      <c r="C160" s="52"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C161" s="55"/>
+      <c r="C161" s="52"/>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C162" s="55"/>
+      <c r="C162" s="52"/>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C163" s="55"/>
+      <c r="C163" s="52"/>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C164" s="55"/>
+      <c r="C164" s="52"/>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C165" s="55"/>
+      <c r="C165" s="52"/>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C166" s="55"/>
+      <c r="C166" s="52"/>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C167" s="55"/>
+      <c r="C167" s="52"/>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C168" s="55"/>
+      <c r="C168" s="52"/>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C169" s="55"/>
+      <c r="C169" s="52"/>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C170" s="55"/>
+      <c r="C170" s="52"/>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C171" s="55"/>
+      <c r="C171" s="52"/>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C172" s="55"/>
+      <c r="C172" s="52"/>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C173" s="55"/>
+      <c r="C173" s="52"/>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C174" s="55"/>
+      <c r="C174" s="52"/>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C175" s="55"/>
+      <c r="C175" s="52"/>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C176" s="55"/>
+      <c r="C176" s="52"/>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C177" s="55"/>
+      <c r="C177" s="52"/>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C178" s="55"/>
+      <c r="C178" s="52"/>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C179" s="55"/>
+      <c r="C179" s="52"/>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C180" s="55"/>
+      <c r="C180" s="52"/>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C181" s="55"/>
+      <c r="C181" s="52"/>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C182" s="55"/>
+      <c r="C182" s="52"/>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C183" s="55"/>
+      <c r="C183" s="52"/>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C184" s="55"/>
+      <c r="C184" s="52"/>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C185" s="55"/>
+      <c r="C185" s="52"/>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C186" s="55"/>
+      <c r="C186" s="52"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C187" s="55"/>
+      <c r="C187" s="52"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C188" s="55"/>
+      <c r="C188" s="52"/>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C189" s="55"/>
+      <c r="C189" s="52"/>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C190" s="55"/>
+      <c r="C190" s="52"/>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C191" s="55"/>
+      <c r="C191" s="52"/>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C192" s="55"/>
+      <c r="C192" s="52"/>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C193" s="55"/>
+      <c r="C193" s="52"/>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C194" s="55"/>
+      <c r="C194" s="52"/>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C195" s="55"/>
+      <c r="C195" s="52"/>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C196" s="55"/>
+      <c r="C196" s="52"/>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C197" s="55"/>
+      <c r="C197" s="52"/>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C198" s="55"/>
+      <c r="C198" s="52"/>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C199" s="55"/>
+      <c r="C199" s="52"/>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C200" s="55"/>
+      <c r="C200" s="52"/>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C201" s="55"/>
+      <c r="C201" s="52"/>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C202" s="55"/>
+      <c r="C202" s="52"/>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C203" s="55"/>
+      <c r="C203" s="52"/>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C204" s="55"/>
+      <c r="C204" s="52"/>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C205" s="55"/>
+      <c r="C205" s="52"/>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C206" s="55"/>
+      <c r="C206" s="52"/>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C207" s="55"/>
+      <c r="C207" s="52"/>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C208" s="55"/>
+      <c r="C208" s="52"/>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C209" s="55"/>
+      <c r="C209" s="52"/>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C210" s="55"/>
+      <c r="C210" s="52"/>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C211" s="55"/>
+      <c r="C211" s="52"/>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C212" s="55"/>
+      <c r="C212" s="52"/>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C213" s="55"/>
+      <c r="C213" s="52"/>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C214" s="55"/>
+      <c r="C214" s="52"/>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C215" s="55"/>
+      <c r="C215" s="52"/>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C216" s="55"/>
+      <c r="C216" s="52"/>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C217" s="55"/>
+      <c r="C217" s="52"/>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C218" s="55"/>
+      <c r="C218" s="52"/>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C219" s="55"/>
+      <c r="C219" s="52"/>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C220" s="55"/>
+      <c r="C220" s="52"/>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C221" s="55"/>
+      <c r="C221" s="52"/>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C222" s="55"/>
+      <c r="C222" s="52"/>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C223" s="55"/>
+      <c r="C223" s="52"/>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C224" s="55"/>
+      <c r="C224" s="52"/>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C225" s="55"/>
+      <c r="C225" s="52"/>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C226" s="55"/>
+      <c r="C226" s="52"/>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C227" s="55"/>
+      <c r="C227" s="52"/>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C228" s="55"/>
+      <c r="C228" s="52"/>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C229" s="55"/>
+      <c r="C229" s="52"/>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C230" s="55"/>
+      <c r="C230" s="52"/>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C231" s="55"/>
+      <c r="C231" s="52"/>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C232" s="55"/>
+      <c r="C232" s="52"/>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C233" s="55"/>
+      <c r="C233" s="52"/>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C234" s="55"/>
+      <c r="C234" s="52"/>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C235" s="55"/>
+      <c r="C235" s="52"/>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C236" s="55"/>
+      <c r="C236" s="52"/>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C237" s="55"/>
+      <c r="C237" s="52"/>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C238" s="55"/>
+      <c r="C238" s="52"/>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C239" s="55"/>
+      <c r="C239" s="52"/>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C240" s="55"/>
+      <c r="C240" s="52"/>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C241" s="55"/>
+      <c r="C241" s="52"/>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C242" s="55"/>
+      <c r="C242" s="52"/>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C243" s="55"/>
+      <c r="C243" s="52"/>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C244" s="55"/>
+      <c r="C244" s="52"/>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C245" s="55"/>
+      <c r="C245" s="52"/>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C246" s="55"/>
+      <c r="C246" s="52"/>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C247" s="55"/>
+      <c r="C247" s="52"/>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C248" s="55"/>
+      <c r="C248" s="52"/>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C249" s="55"/>
+      <c r="C249" s="52"/>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C250" s="55"/>
+      <c r="C250" s="52"/>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C251" s="55"/>
+      <c r="C251" s="52"/>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C252" s="55"/>
+      <c r="C252" s="52"/>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C253" s="55"/>
+      <c r="C253" s="52"/>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C254" s="55"/>
+      <c r="C254" s="52"/>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C255" s="55"/>
+      <c r="C255" s="52"/>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C256" s="55"/>
+      <c r="C256" s="52"/>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C257" s="55"/>
+      <c r="C257" s="52"/>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C258" s="55"/>
+      <c r="C258" s="52"/>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C259" s="55"/>
+      <c r="C259" s="52"/>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C260" s="55"/>
+      <c r="C260" s="52"/>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C261" s="55"/>
+      <c r="C261" s="52"/>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C262" s="55"/>
+      <c r="C262" s="52"/>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C263" s="55"/>
+      <c r="C263" s="52"/>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C264" s="55"/>
+      <c r="C264" s="52"/>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C265" s="55"/>
+      <c r="C265" s="52"/>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C266" s="55"/>
+      <c r="C266" s="52"/>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C267" s="55"/>
+      <c r="C267" s="52"/>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C268" s="55"/>
+      <c r="C268" s="52"/>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C269" s="55"/>
+      <c r="C269" s="52"/>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C270" s="55"/>
+      <c r="C270" s="52"/>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C271" s="55"/>
+      <c r="C271" s="52"/>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C272" s="55"/>
+      <c r="C272" s="52"/>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C273" s="55"/>
+      <c r="C273" s="52"/>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C274" s="55"/>
+      <c r="C274" s="52"/>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C275" s="55"/>
+      <c r="C275" s="52"/>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C276" s="55"/>
+      <c r="C276" s="52"/>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C277" s="55"/>
+      <c r="C277" s="52"/>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C278" s="55"/>
+      <c r="C278" s="52"/>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C279" s="55"/>
+      <c r="C279" s="52"/>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C280" s="55"/>
+      <c r="C280" s="52"/>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C281" s="55"/>
+      <c r="C281" s="52"/>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C282" s="55"/>
+      <c r="C282" s="52"/>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C283" s="55"/>
+      <c r="C283" s="52"/>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C284" s="55"/>
+      <c r="C284" s="52"/>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C285" s="55"/>
+      <c r="C285" s="52"/>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C286" s="55"/>
+      <c r="C286" s="52"/>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C287" s="55"/>
+      <c r="C287" s="52"/>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C288" s="55"/>
+      <c r="C288" s="52"/>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C289" s="55"/>
+      <c r="C289" s="52"/>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C290" s="55"/>
+      <c r="C290" s="52"/>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C291" s="55"/>
+      <c r="C291" s="52"/>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C292" s="55"/>
+      <c r="C292" s="52"/>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C293" s="55"/>
+      <c r="C293" s="52"/>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C294" s="55"/>
+      <c r="C294" s="52"/>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C295" s="55"/>
+      <c r="C295" s="52"/>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C296" s="55"/>
+      <c r="C296" s="52"/>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C297" s="55"/>
+      <c r="C297" s="52"/>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C298" s="55"/>
+      <c r="C298" s="52"/>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C299" s="55"/>
+      <c r="C299" s="52"/>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C300" s="55"/>
+      <c r="C300" s="52"/>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C301" s="55"/>
+      <c r="C301" s="52"/>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C302" s="55"/>
+      <c r="C302" s="52"/>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C303" s="55"/>
+      <c r="C303" s="52"/>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C304" s="55"/>
+      <c r="C304" s="52"/>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C305" s="55"/>
+      <c r="C305" s="52"/>
     </row>
     <row r="306" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C306" s="55"/>
+      <c r="C306" s="52"/>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C307" s="55"/>
+      <c r="C307" s="52"/>
     </row>
     <row r="308" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C308" s="55"/>
+      <c r="C308" s="52"/>
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C309" s="55"/>
+      <c r="C309" s="52"/>
     </row>
     <row r="310" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C310" s="55"/>
+      <c r="C310" s="52"/>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C311" s="55"/>
+      <c r="C311" s="52"/>
     </row>
     <row r="312" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C312" s="55"/>
+      <c r="C312" s="52"/>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C313" s="55"/>
+      <c r="C313" s="52"/>
     </row>
     <row r="314" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C314" s="55"/>
+      <c r="C314" s="52"/>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C315" s="55"/>
+      <c r="C315" s="52"/>
     </row>
     <row r="316" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C316" s="55"/>
+      <c r="C316" s="52"/>
     </row>
     <row r="317" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C317" s="55"/>
+      <c r="C317" s="52"/>
     </row>
     <row r="318" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C318" s="55"/>
+      <c r="C318" s="52"/>
     </row>
     <row r="319" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C319" s="55"/>
+      <c r="C319" s="52"/>
     </row>
     <row r="320" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C320" s="55"/>
+      <c r="C320" s="52"/>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C321" s="55"/>
+      <c r="C321" s="52"/>
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C322" s="55"/>
+      <c r="C322" s="52"/>
     </row>
     <row r="323" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C323" s="55"/>
+      <c r="C323" s="52"/>
     </row>
     <row r="324" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C324" s="55"/>
+      <c r="C324" s="52"/>
     </row>
     <row r="325" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C325" s="55"/>
+      <c r="C325" s="52"/>
     </row>
     <row r="326" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C326" s="55"/>
+      <c r="C326" s="52"/>
     </row>
     <row r="327" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C327" s="55"/>
+      <c r="C327" s="52"/>
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C328" s="55"/>
+      <c r="C328" s="52"/>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C329" s="55"/>
+      <c r="C329" s="52"/>
     </row>
     <row r="330" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C330" s="55"/>
+      <c r="C330" s="52"/>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C331" s="55"/>
+      <c r="C331" s="52"/>
     </row>
     <row r="332" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C332" s="55"/>
+      <c r="C332" s="52"/>
     </row>
     <row r="333" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C333" s="55"/>
+      <c r="C333" s="52"/>
     </row>
     <row r="334" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C334" s="55"/>
+      <c r="C334" s="52"/>
     </row>
     <row r="335" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C335" s="55"/>
+      <c r="C335" s="52"/>
     </row>
     <row r="336" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C336" s="55"/>
+      <c r="C336" s="52"/>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C337" s="55"/>
+      <c r="C337" s="52"/>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C338" s="55"/>
+      <c r="C338" s="52"/>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C339" s="55"/>
+      <c r="C339" s="52"/>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C340" s="55"/>
+      <c r="C340" s="52"/>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C341" s="55"/>
+      <c r="C341" s="52"/>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C342" s="55"/>
+      <c r="C342" s="52"/>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C343" s="55"/>
+      <c r="C343" s="52"/>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C344" s="55"/>
+      <c r="C344" s="52"/>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C345" s="55"/>
+      <c r="C345" s="52"/>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C346" s="55"/>
+      <c r="C346" s="52"/>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C347" s="55"/>
+      <c r="C347" s="52"/>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C348" s="55"/>
+      <c r="C348" s="52"/>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C349" s="55"/>
+      <c r="C349" s="52"/>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C350" s="55"/>
+      <c r="C350" s="52"/>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C351" s="55"/>
+      <c r="C351" s="52"/>
     </row>
     <row r="352" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C352" s="55"/>
+      <c r="C352" s="52"/>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C353" s="55"/>
+      <c r="C353" s="52"/>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C354" s="55"/>
+      <c r="C354" s="52"/>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C355" s="55"/>
+      <c r="C355" s="52"/>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C356" s="55"/>
+      <c r="C356" s="52"/>
     </row>
     <row r="357" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C357" s="55"/>
+      <c r="C357" s="52"/>
     </row>
     <row r="358" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C358" s="55"/>
+      <c r="C358" s="52"/>
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C359" s="55"/>
+      <c r="C359" s="52"/>
     </row>
     <row r="360" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C360" s="55"/>
+      <c r="C360" s="52"/>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C361" s="55"/>
+      <c r="C361" s="52"/>
     </row>
     <row r="362" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C362" s="55"/>
+      <c r="C362" s="52"/>
     </row>
     <row r="363" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C363" s="55"/>
+      <c r="C363" s="52"/>
     </row>
     <row r="364" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C364" s="55"/>
+      <c r="C364" s="52"/>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C365" s="55"/>
+      <c r="C365" s="52"/>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C366" s="55"/>
+      <c r="C366" s="52"/>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C367" s="55"/>
+      <c r="C367" s="52"/>
     </row>
     <row r="368" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C368" s="55"/>
+      <c r="C368" s="52"/>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C369" s="55"/>
+      <c r="C369" s="52"/>
     </row>
     <row r="370" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C370" s="55"/>
+      <c r="C370" s="52"/>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C371" s="55"/>
+      <c r="C371" s="52"/>
     </row>
     <row r="372" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C372" s="55"/>
+      <c r="C372" s="52"/>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C373" s="55"/>
+      <c r="C373" s="52"/>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C374" s="55"/>
+      <c r="C374" s="52"/>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C375" s="55"/>
+      <c r="C375" s="52"/>
     </row>
     <row r="376" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C376" s="55"/>
+      <c r="C376" s="52"/>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C377" s="55"/>
+      <c r="C377" s="52"/>
     </row>
     <row r="378" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C378" s="55"/>
+      <c r="C378" s="52"/>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C379" s="55"/>
+      <c r="C379" s="52"/>
     </row>
     <row r="380" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C380" s="55"/>
+      <c r="C380" s="52"/>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C381" s="55"/>
+      <c r="C381" s="52"/>
     </row>
     <row r="382" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C382" s="55"/>
+      <c r="C382" s="52"/>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C383" s="55"/>
+      <c r="C383" s="52"/>
     </row>
     <row r="384" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C384" s="55"/>
+      <c r="C384" s="52"/>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C385" s="55"/>
+      <c r="C385" s="52"/>
     </row>
     <row r="386" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C386" s="55"/>
+      <c r="C386" s="52"/>
     </row>
     <row r="387" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C387" s="55"/>
+      <c r="C387" s="52"/>
     </row>
     <row r="388" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C388" s="55"/>
+      <c r="C388" s="52"/>
     </row>
     <row r="389" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C389" s="55"/>
+      <c r="C389" s="52"/>
     </row>
     <row r="390" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C390" s="55"/>
+      <c r="C390" s="52"/>
     </row>
     <row r="391" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C391" s="55"/>
+      <c r="C391" s="52"/>
     </row>
     <row r="392" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C392" s="55"/>
+      <c r="C392" s="52"/>
     </row>
     <row r="393" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C393" s="55"/>
+      <c r="C393" s="52"/>
     </row>
     <row r="394" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C394" s="55"/>
+      <c r="C394" s="52"/>
     </row>
     <row r="395" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C395" s="55"/>
+      <c r="C395" s="52"/>
     </row>
     <row r="396" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C396" s="55"/>
+      <c r="C396" s="52"/>
     </row>
     <row r="397" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C397" s="55"/>
+      <c r="C397" s="52"/>
     </row>
     <row r="398" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C398" s="55"/>
+      <c r="C398" s="52"/>
     </row>
     <row r="399" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C399" s="55"/>
+      <c r="C399" s="52"/>
     </row>
     <row r="400" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C400" s="55"/>
+      <c r="C400" s="52"/>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C401" s="55"/>
+      <c r="C401" s="52"/>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C402" s="55"/>
+      <c r="C402" s="52"/>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C403" s="55"/>
+      <c r="C403" s="52"/>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C404" s="55"/>
+      <c r="C404" s="52"/>
     </row>
     <row r="405" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C405" s="55"/>
+      <c r="C405" s="52"/>
     </row>
     <row r="406" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C406" s="55"/>
+      <c r="C406" s="52"/>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C407" s="55"/>
+      <c r="C407" s="52"/>
     </row>
     <row r="408" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C408" s="55"/>
+      <c r="C408" s="52"/>
     </row>
     <row r="409" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C409" s="55"/>
+      <c r="C409" s="52"/>
     </row>
     <row r="410" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C410" s="55"/>
+      <c r="C410" s="52"/>
     </row>
     <row r="411" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C411" s="55"/>
+      <c r="C411" s="52"/>
     </row>
     <row r="412" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C412" s="55"/>
+      <c r="C412" s="52"/>
     </row>
     <row r="413" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C413" s="55"/>
+      <c r="C413" s="52"/>
     </row>
     <row r="414" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C414" s="55"/>
+      <c r="C414" s="52"/>
     </row>
     <row r="415" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C415" s="55"/>
+      <c r="C415" s="52"/>
     </row>
     <row r="416" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C416" s="55"/>
+      <c r="C416" s="52"/>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C417" s="55"/>
+      <c r="C417" s="52"/>
     </row>
     <row r="418" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C418" s="55"/>
+      <c r="C418" s="52"/>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C419" s="55"/>
+      <c r="C419" s="52"/>
     </row>
     <row r="420" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C420" s="55"/>
+      <c r="C420" s="52"/>
     </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C421" s="55"/>
+      <c r="C421" s="52"/>
     </row>
     <row r="422" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C422" s="55"/>
+      <c r="C422" s="52"/>
     </row>
     <row r="423" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C423" s="55"/>
+      <c r="C423" s="52"/>
     </row>
     <row r="424" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C424" s="55"/>
+      <c r="C424" s="52"/>
     </row>
     <row r="425" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C425" s="55"/>
+      <c r="C425" s="52"/>
     </row>
     <row r="426" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C426" s="55"/>
+      <c r="C426" s="52"/>
     </row>
     <row r="427" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C427" s="55"/>
+      <c r="C427" s="52"/>
     </row>
     <row r="428" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C428" s="55"/>
+      <c r="C428" s="52"/>
     </row>
     <row r="429" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C429" s="55"/>
+      <c r="C429" s="52"/>
     </row>
     <row r="430" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C430" s="55"/>
+      <c r="C430" s="52"/>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C431" s="55"/>
+      <c r="C431" s="52"/>
     </row>
     <row r="432" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C432" s="55"/>
+      <c r="C432" s="52"/>
     </row>
     <row r="433" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C433" s="55"/>
+      <c r="C433" s="52"/>
     </row>
     <row r="434" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C434" s="55"/>
+      <c r="C434" s="52"/>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C435" s="55"/>
+      <c r="C435" s="52"/>
     </row>
     <row r="436" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C436" s="55"/>
+      <c r="C436" s="52"/>
     </row>
     <row r="437" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C437" s="55"/>
+      <c r="C437" s="52"/>
     </row>
     <row r="438" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C438" s="55"/>
+      <c r="C438" s="52"/>
     </row>
     <row r="439" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C439" s="55"/>
+      <c r="C439" s="52"/>
     </row>
     <row r="440" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C440" s="55"/>
+      <c r="C440" s="52"/>
     </row>
     <row r="441" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C441" s="55"/>
+      <c r="C441" s="52"/>
     </row>
     <row r="442" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C442" s="55"/>
+      <c r="C442" s="52"/>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C443" s="55"/>
+      <c r="C443" s="52"/>
     </row>
     <row r="444" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C444" s="55"/>
+      <c r="C444" s="52"/>
     </row>
     <row r="445" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C445" s="55"/>
+      <c r="C445" s="52"/>
     </row>
     <row r="446" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C446" s="55"/>
+      <c r="C446" s="52"/>
     </row>
     <row r="447" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C447" s="55"/>
+      <c r="C447" s="52"/>
     </row>
     <row r="448" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C448" s="55"/>
+      <c r="C448" s="52"/>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C449" s="55"/>
+      <c r="C449" s="52"/>
     </row>
     <row r="450" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C450" s="55"/>
+      <c r="C450" s="52"/>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C451" s="55"/>
+      <c r="C451" s="52"/>
     </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C452" s="55"/>
+      <c r="C452" s="52"/>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C453" s="55"/>
+      <c r="C453" s="52"/>
     </row>
     <row r="454" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C454" s="55"/>
+      <c r="C454" s="52"/>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C455" s="55"/>
+      <c r="C455" s="52"/>
     </row>
     <row r="456" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C456" s="55"/>
+      <c r="C456" s="52"/>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C457" s="55"/>
+      <c r="C457" s="52"/>
     </row>
     <row r="458" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C458" s="55"/>
+      <c r="C458" s="52"/>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C459" s="55"/>
+      <c r="C459" s="52"/>
     </row>
     <row r="460" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C460" s="55"/>
+      <c r="C460" s="52"/>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C461" s="55"/>
+      <c r="C461" s="52"/>
     </row>
     <row r="462" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C462" s="55"/>
+      <c r="C462" s="52"/>
     </row>
     <row r="463" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C463" s="55"/>
+      <c r="C463" s="52"/>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C464" s="55"/>
+      <c r="C464" s="52"/>
     </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C465" s="55"/>
+      <c r="C465" s="52"/>
     </row>
     <row r="466" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C466" s="55"/>
+      <c r="C466" s="52"/>
     </row>
     <row r="467" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C467" s="55"/>
+      <c r="C467" s="52"/>
     </row>
     <row r="468" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C468" s="55"/>
+      <c r="C468" s="52"/>
     </row>
     <row r="469" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C469" s="55"/>
+      <c r="C469" s="52"/>
     </row>
     <row r="470" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C470" s="55"/>
+      <c r="C470" s="52"/>
     </row>
     <row r="471" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C471" s="55"/>
+      <c r="C471" s="52"/>
     </row>
     <row r="472" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C472" s="55"/>
+      <c r="C472" s="52"/>
     </row>
     <row r="473" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C473" s="55"/>
+      <c r="C473" s="52"/>
     </row>
     <row r="474" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C474" s="55"/>
+      <c r="C474" s="52"/>
     </row>
     <row r="475" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C475" s="55"/>
+      <c r="C475" s="52"/>
     </row>
     <row r="476" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C476" s="55"/>
+      <c r="C476" s="52"/>
     </row>
     <row r="477" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C477" s="55"/>
+      <c r="C477" s="52"/>
     </row>
     <row r="478" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C478" s="55"/>
+      <c r="C478" s="52"/>
     </row>
     <row r="479" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C479" s="55"/>
+      <c r="C479" s="52"/>
     </row>
     <row r="480" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C480" s="55"/>
+      <c r="C480" s="52"/>
     </row>
     <row r="481" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C481" s="55"/>
+      <c r="C481" s="52"/>
     </row>
     <row r="482" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C482" s="55"/>
+      <c r="C482" s="52"/>
     </row>
     <row r="483" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C483" s="55"/>
+      <c r="C483" s="52"/>
     </row>
     <row r="484" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C484" s="55"/>
+      <c r="C484" s="52"/>
     </row>
     <row r="485" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C485" s="55"/>
+      <c r="C485" s="52"/>
     </row>
     <row r="486" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C486" s="55"/>
+      <c r="C486" s="52"/>
     </row>
     <row r="487" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C487" s="55"/>
+      <c r="C487" s="52"/>
     </row>
     <row r="488" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C488" s="55"/>
+      <c r="C488" s="52"/>
     </row>
     <row r="489" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C489" s="55"/>
+      <c r="C489" s="52"/>
     </row>
     <row r="490" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C490" s="55"/>
+      <c r="C490" s="52"/>
     </row>
     <row r="491" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C491" s="55"/>
+      <c r="C491" s="52"/>
     </row>
     <row r="492" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C492" s="55"/>
+      <c r="C492" s="52"/>
     </row>
     <row r="493" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C493" s="55"/>
+      <c r="C493" s="52"/>
     </row>
     <row r="494" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C494" s="55"/>
+      <c r="C494" s="52"/>
     </row>
     <row r="495" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C495" s="55"/>
+      <c r="C495" s="52"/>
     </row>
     <row r="496" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C496" s="55"/>
+      <c r="C496" s="52"/>
     </row>
     <row r="497" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C497" s="55"/>
+      <c r="C497" s="52"/>
     </row>
     <row r="498" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C498" s="55"/>
+      <c r="C498" s="52"/>
     </row>
     <row r="499" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C499" s="55"/>
+      <c r="C499" s="52"/>
     </row>
     <row r="500" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C500" s="55"/>
+      <c r="C500" s="52"/>
     </row>
     <row r="501" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C501" s="55"/>
+      <c r="C501" s="52"/>
     </row>
     <row r="502" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C502" s="55"/>
+      <c r="C502" s="52"/>
     </row>
     <row r="503" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C503" s="55"/>
+      <c r="C503" s="52"/>
     </row>
     <row r="504" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C504" s="55"/>
+      <c r="C504" s="52"/>
     </row>
     <row r="505" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C505" s="55"/>
+      <c r="C505" s="52"/>
     </row>
     <row r="506" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C506" s="55"/>
+      <c r="C506" s="52"/>
     </row>
     <row r="507" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C507" s="55"/>
+      <c r="C507" s="52"/>
     </row>
     <row r="508" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C508" s="55"/>
+      <c r="C508" s="52"/>
     </row>
     <row r="509" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C509" s="55"/>
+      <c r="C509" s="52"/>
     </row>
     <row r="510" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C510" s="55"/>
+      <c r="C510" s="52"/>
     </row>
     <row r="511" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C511" s="55"/>
+      <c r="C511" s="52"/>
     </row>
     <row r="512" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C512" s="55"/>
+      <c r="C512" s="52"/>
     </row>
     <row r="513" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C513" s="55"/>
+      <c r="C513" s="52"/>
     </row>
     <row r="514" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C514" s="55"/>
+      <c r="C514" s="52"/>
     </row>
     <row r="515" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C515" s="55"/>
+      <c r="C515" s="52"/>
     </row>
     <row r="516" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C516" s="55"/>
+      <c r="C516" s="52"/>
     </row>
     <row r="517" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C517" s="55"/>
+      <c r="C517" s="52"/>
     </row>
     <row r="518" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C518" s="55"/>
+      <c r="C518" s="52"/>
     </row>
     <row r="519" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C519" s="55"/>
+      <c r="C519" s="52"/>
     </row>
     <row r="520" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C520" s="55"/>
+      <c r="C520" s="52"/>
     </row>
     <row r="521" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C521" s="55"/>
+      <c r="C521" s="52"/>
     </row>
     <row r="522" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C522" s="55"/>
+      <c r="C522" s="52"/>
     </row>
     <row r="523" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C523" s="55"/>
+      <c r="C523" s="52"/>
     </row>
     <row r="524" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C524" s="55"/>
+      <c r="C524" s="52"/>
     </row>
     <row r="525" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C525" s="55"/>
+      <c r="C525" s="52"/>
     </row>
     <row r="526" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C526" s="55"/>
+      <c r="C526" s="52"/>
     </row>
     <row r="527" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C527" s="55"/>
+      <c r="C527" s="52"/>
     </row>
     <row r="528" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C528" s="55"/>
+      <c r="C528" s="52"/>
     </row>
     <row r="529" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C529" s="55"/>
+      <c r="C529" s="52"/>
     </row>
     <row r="530" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C530" s="55"/>
+      <c r="C530" s="52"/>
     </row>
     <row r="531" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C531" s="55"/>
+      <c r="C531" s="52"/>
     </row>
     <row r="532" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C532" s="55"/>
+      <c r="C532" s="52"/>
     </row>
     <row r="533" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C533" s="55"/>
+      <c r="C533" s="52"/>
     </row>
     <row r="534" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C534" s="55"/>
+      <c r="C534" s="52"/>
     </row>
     <row r="535" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C535" s="55"/>
+      <c r="C535" s="52"/>
     </row>
     <row r="536" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C536" s="55"/>
+      <c r="C536" s="52"/>
     </row>
     <row r="537" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C537" s="55"/>
+      <c r="C537" s="52"/>
     </row>
     <row r="538" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C538" s="55"/>
+      <c r="C538" s="52"/>
     </row>
     <row r="539" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C539" s="55"/>
+      <c r="C539" s="52"/>
     </row>
     <row r="540" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C540" s="55"/>
+      <c r="C540" s="52"/>
     </row>
     <row r="541" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C541" s="55"/>
+      <c r="C541" s="52"/>
     </row>
     <row r="542" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C542" s="55"/>
+      <c r="C542" s="52"/>
     </row>
     <row r="543" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C543" s="55"/>
+      <c r="C543" s="52"/>
     </row>
     <row r="544" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C544" s="55"/>
+      <c r="C544" s="52"/>
     </row>
     <row r="545" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C545" s="55"/>
+      <c r="C545" s="52"/>
     </row>
     <row r="546" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C546" s="55"/>
+      <c r="C546" s="52"/>
     </row>
     <row r="547" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C547" s="55"/>
+      <c r="C547" s="52"/>
     </row>
     <row r="548" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C548" s="55"/>
+      <c r="C548" s="52"/>
     </row>
     <row r="549" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C549" s="55"/>
+      <c r="C549" s="52"/>
     </row>
     <row r="550" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C550" s="55"/>
+      <c r="C550" s="52"/>
     </row>
     <row r="551" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C551" s="55"/>
+      <c r="C551" s="52"/>
     </row>
     <row r="552" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C552" s="55"/>
+      <c r="C552" s="52"/>
     </row>
     <row r="553" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C553" s="55"/>
+      <c r="C553" s="52"/>
     </row>
     <row r="554" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C554" s="55"/>
+      <c r="C554" s="52"/>
     </row>
     <row r="555" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C555" s="55"/>
+      <c r="C555" s="52"/>
     </row>
     <row r="556" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C556" s="55"/>
+      <c r="C556" s="52"/>
     </row>
     <row r="557" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C557" s="55"/>
+      <c r="C557" s="52"/>
     </row>
     <row r="558" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C558" s="55"/>
+      <c r="C558" s="52"/>
     </row>
     <row r="559" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C559" s="55"/>
+      <c r="C559" s="52"/>
     </row>
     <row r="560" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C560" s="55"/>
+      <c r="C560" s="52"/>
     </row>
     <row r="561" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C561" s="55"/>
+      <c r="C561" s="52"/>
     </row>
     <row r="562" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C562" s="55"/>
+      <c r="C562" s="52"/>
     </row>
     <row r="563" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C563" s="55"/>
+      <c r="C563" s="52"/>
     </row>
     <row r="564" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C564" s="55"/>
+      <c r="C564" s="52"/>
     </row>
     <row r="565" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C565" s="55"/>
+      <c r="C565" s="52"/>
     </row>
     <row r="566" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C566" s="55"/>
+      <c r="C566" s="52"/>
     </row>
     <row r="567" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C567" s="55"/>
+      <c r="C567" s="52"/>
     </row>
     <row r="568" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C568" s="55"/>
+      <c r="C568" s="52"/>
     </row>
     <row r="569" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C569" s="55"/>
+      <c r="C569" s="52"/>
     </row>
     <row r="570" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C570" s="55"/>
+      <c r="C570" s="52"/>
     </row>
     <row r="571" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C571" s="55"/>
+      <c r="C571" s="52"/>
     </row>
     <row r="572" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C572" s="55"/>
+      <c r="C572" s="52"/>
     </row>
     <row r="573" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C573" s="55"/>
+      <c r="C573" s="52"/>
     </row>
     <row r="574" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C574" s="55"/>
+      <c r="C574" s="52"/>
     </row>
     <row r="575" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C575" s="55"/>
+      <c r="C575" s="52"/>
     </row>
     <row r="576" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C576" s="55"/>
+      <c r="C576" s="52"/>
     </row>
     <row r="577" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C577" s="55"/>
+      <c r="C577" s="52"/>
     </row>
     <row r="578" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C578" s="55"/>
+      <c r="C578" s="52"/>
     </row>
     <row r="579" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C579" s="55"/>
+      <c r="C579" s="52"/>
     </row>
     <row r="580" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C580" s="55"/>
+      <c r="C580" s="52"/>
     </row>
     <row r="581" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C581" s="55"/>
+      <c r="C581" s="52"/>
     </row>
     <row r="582" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C582" s="55"/>
+      <c r="C582" s="52"/>
     </row>
     <row r="583" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C583" s="55"/>
+      <c r="C583" s="52"/>
     </row>
     <row r="584" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C584" s="55"/>
+      <c r="C584" s="52"/>
     </row>
     <row r="585" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C585" s="55"/>
+      <c r="C585" s="52"/>
     </row>
     <row r="586" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C586" s="55"/>
+      <c r="C586" s="52"/>
     </row>
     <row r="587" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C587" s="55"/>
+      <c r="C587" s="52"/>
     </row>
     <row r="588" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C588" s="55"/>
+      <c r="C588" s="52"/>
     </row>
     <row r="589" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C589" s="55"/>
+      <c r="C589" s="52"/>
     </row>
     <row r="590" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C590" s="55"/>
+      <c r="C590" s="52"/>
     </row>
     <row r="591" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C591" s="55"/>
+      <c r="C591" s="52"/>
     </row>
     <row r="592" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C592" s="55"/>
+      <c r="C592" s="52"/>
     </row>
     <row r="593" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C593" s="55"/>
+      <c r="C593" s="52"/>
     </row>
     <row r="594" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C594" s="55"/>
+      <c r="C594" s="52"/>
     </row>
     <row r="595" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C595" s="55"/>
+      <c r="C595" s="52"/>
     </row>
     <row r="596" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C596" s="55"/>
+      <c r="C596" s="52"/>
     </row>
     <row r="597" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C597" s="55"/>
+      <c r="C597" s="52"/>
     </row>
     <row r="598" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C598" s="55"/>
+      <c r="C598" s="52"/>
     </row>
     <row r="599" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C599" s="55"/>
+      <c r="C599" s="52"/>
     </row>
     <row r="600" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C600" s="55"/>
+      <c r="C600" s="52"/>
     </row>
     <row r="601" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C601" s="55"/>
+      <c r="C601" s="52"/>
     </row>
     <row r="602" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C602" s="55"/>
+      <c r="C602" s="52"/>
     </row>
     <row r="603" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C603" s="55"/>
+      <c r="C603" s="52"/>
     </row>
     <row r="604" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C604" s="55"/>
+      <c r="C604" s="52"/>
     </row>
     <row r="605" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C605" s="55"/>
+      <c r="C605" s="52"/>
     </row>
     <row r="606" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C606" s="55"/>
+      <c r="C606" s="52"/>
     </row>
     <row r="607" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C607" s="55"/>
+      <c r="C607" s="52"/>
     </row>
     <row r="608" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C608" s="55"/>
+      <c r="C608" s="52"/>
     </row>
     <row r="609" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C609" s="55"/>
+      <c r="C609" s="52"/>
     </row>
     <row r="610" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C610" s="55"/>
+      <c r="C610" s="52"/>
     </row>
     <row r="611" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C611" s="55"/>
+      <c r="C611" s="52"/>
     </row>
     <row r="612" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C612" s="55"/>
+      <c r="C612" s="52"/>
     </row>
     <row r="613" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C613" s="55"/>
+      <c r="C613" s="52"/>
     </row>
     <row r="614" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C614" s="55"/>
+      <c r="C614" s="52"/>
     </row>
     <row r="615" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C615" s="55"/>
+      <c r="C615" s="52"/>
     </row>
     <row r="616" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C616" s="55"/>
+      <c r="C616" s="52"/>
     </row>
     <row r="617" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C617" s="55"/>
+      <c r="C617" s="52"/>
     </row>
     <row r="618" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C618" s="55"/>
+      <c r="C618" s="52"/>
     </row>
     <row r="619" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C619" s="55"/>
+      <c r="C619" s="52"/>
     </row>
     <row r="620" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C620" s="55"/>
+      <c r="C620" s="52"/>
     </row>
     <row r="621" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C621" s="55"/>
+      <c r="C621" s="52"/>
     </row>
     <row r="622" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C622" s="55"/>
+      <c r="C622" s="52"/>
     </row>
     <row r="623" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C623" s="55"/>
+      <c r="C623" s="52"/>
     </row>
     <row r="624" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C624" s="55"/>
+      <c r="C624" s="52"/>
     </row>
     <row r="625" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C625" s="55"/>
+      <c r="C625" s="52"/>
     </row>
     <row r="626" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C626" s="55"/>
+      <c r="C626" s="52"/>
     </row>
     <row r="627" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C627" s="55"/>
+      <c r="C627" s="52"/>
     </row>
     <row r="628" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C628" s="55"/>
+      <c r="C628" s="52"/>
     </row>
     <row r="629" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C629" s="55"/>
+      <c r="C629" s="52"/>
     </row>
     <row r="630" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C630" s="55"/>
+      <c r="C630" s="52"/>
     </row>
     <row r="631" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C631" s="55"/>
+      <c r="C631" s="52"/>
     </row>
     <row r="632" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C632" s="55"/>
+      <c r="C632" s="52"/>
     </row>
     <row r="633" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C633" s="55"/>
+      <c r="C633" s="52"/>
     </row>
     <row r="634" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C634" s="55"/>
+      <c r="C634" s="52"/>
     </row>
     <row r="635" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C635" s="55"/>
+      <c r="C635" s="52"/>
     </row>
     <row r="636" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C636" s="55"/>
+      <c r="C636" s="52"/>
     </row>
     <row r="637" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C637" s="55"/>
+      <c r="C637" s="52"/>
     </row>
     <row r="638" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C638" s="55"/>
+      <c r="C638" s="52"/>
     </row>
     <row r="639" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C639" s="55"/>
+      <c r="C639" s="52"/>
     </row>
     <row r="640" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C640" s="55"/>
+      <c r="C640" s="52"/>
     </row>
     <row r="641" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C641" s="55"/>
+      <c r="C641" s="52"/>
     </row>
     <row r="642" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C642" s="55"/>
+      <c r="C642" s="52"/>
     </row>
     <row r="643" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C643" s="55"/>
+      <c r="C643" s="52"/>
     </row>
     <row r="644" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C644" s="55"/>
+      <c r="C644" s="52"/>
     </row>
     <row r="645" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C645" s="55"/>
+      <c r="C645" s="52"/>
     </row>
     <row r="646" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C646" s="55"/>
+      <c r="C646" s="52"/>
     </row>
     <row r="647" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C647" s="55"/>
+      <c r="C647" s="52"/>
     </row>
     <row r="648" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C648" s="55"/>
+      <c r="C648" s="52"/>
     </row>
     <row r="649" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C649" s="55"/>
+      <c r="C649" s="52"/>
     </row>
     <row r="650" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C650" s="55"/>
+      <c r="C650" s="52"/>
     </row>
     <row r="651" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C651" s="55"/>
+      <c r="C651" s="52"/>
     </row>
     <row r="652" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C652" s="55"/>
+      <c r="C652" s="52"/>
     </row>
     <row r="653" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C653" s="55"/>
+      <c r="C653" s="52"/>
     </row>
     <row r="654" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C654" s="55"/>
+      <c r="C654" s="52"/>
     </row>
     <row r="655" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C655" s="55"/>
+      <c r="C655" s="52"/>
     </row>
     <row r="656" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C656" s="55"/>
+      <c r="C656" s="52"/>
     </row>
     <row r="657" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C657" s="55"/>
+      <c r="C657" s="52"/>
     </row>
     <row r="658" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C658" s="55"/>
+      <c r="C658" s="52"/>
     </row>
     <row r="659" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C659" s="55"/>
+      <c r="C659" s="52"/>
     </row>
     <row r="660" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C660" s="55"/>
+      <c r="C660" s="52"/>
     </row>
     <row r="661" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C661" s="55"/>
+      <c r="C661" s="52"/>
     </row>
     <row r="662" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C662" s="55"/>
+      <c r="C662" s="52"/>
     </row>
     <row r="663" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C663" s="55"/>
+      <c r="C663" s="52"/>
     </row>
     <row r="664" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C664" s="55"/>
+      <c r="C664" s="52"/>
     </row>
     <row r="665" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C665" s="55"/>
+      <c r="C665" s="52"/>
     </row>
     <row r="666" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C666" s="55"/>
+      <c r="C666" s="52"/>
     </row>
     <row r="667" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C667" s="55"/>
+      <c r="C667" s="52"/>
     </row>
     <row r="668" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C668" s="55"/>
+      <c r="C668" s="52"/>
     </row>
     <row r="669" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C669" s="55"/>
+      <c r="C669" s="52"/>
     </row>
     <row r="670" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C670" s="55"/>
+      <c r="C670" s="52"/>
     </row>
     <row r="671" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C671" s="55"/>
+      <c r="C671" s="52"/>
     </row>
     <row r="672" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C672" s="55"/>
+      <c r="C672" s="52"/>
     </row>
     <row r="673" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C673" s="55"/>
+      <c r="C673" s="52"/>
     </row>
     <row r="674" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C674" s="55"/>
+      <c r="C674" s="52"/>
     </row>
     <row r="675" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C675" s="55"/>
+      <c r="C675" s="52"/>
     </row>
     <row r="676" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C676" s="55"/>
+      <c r="C676" s="52"/>
     </row>
     <row r="677" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C677" s="55"/>
+      <c r="C677" s="52"/>
     </row>
     <row r="678" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C678" s="55"/>
+      <c r="C678" s="52"/>
     </row>
     <row r="679" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C679" s="55"/>
+      <c r="C679" s="52"/>
     </row>
     <row r="680" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C680" s="55"/>
+      <c r="C680" s="52"/>
     </row>
     <row r="681" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C681" s="55"/>
+      <c r="C681" s="52"/>
     </row>
     <row r="682" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C682" s="55"/>
+      <c r="C682" s="52"/>
     </row>
     <row r="683" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C683" s="55"/>
+      <c r="C683" s="52"/>
     </row>
     <row r="684" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C684" s="55"/>
+      <c r="C684" s="52"/>
     </row>
     <row r="685" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C685" s="55"/>
+      <c r="C685" s="52"/>
     </row>
     <row r="686" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C686" s="55"/>
+      <c r="C686" s="52"/>
     </row>
     <row r="687" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C687" s="55"/>
+      <c r="C687" s="52"/>
     </row>
     <row r="688" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C688" s="55"/>
+      <c r="C688" s="52"/>
     </row>
     <row r="689" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C689" s="55"/>
+      <c r="C689" s="52"/>
     </row>
     <row r="690" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C690" s="55"/>
+      <c r="C690" s="52"/>
     </row>
     <row r="691" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C691" s="55"/>
+      <c r="C691" s="52"/>
     </row>
     <row r="692" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C692" s="55"/>
+      <c r="C692" s="52"/>
     </row>
     <row r="693" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C693" s="55"/>
+      <c r="C693" s="52"/>
     </row>
     <row r="694" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C694" s="55"/>
+      <c r="C694" s="52"/>
     </row>
     <row r="695" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C695" s="55"/>
+      <c r="C695" s="52"/>
     </row>
     <row r="696" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C696" s="55"/>
+      <c r="C696" s="52"/>
     </row>
     <row r="697" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C697" s="55"/>
+      <c r="C697" s="52"/>
     </row>
     <row r="698" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C698" s="55"/>
+      <c r="C698" s="52"/>
     </row>
     <row r="699" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C699" s="55"/>
+      <c r="C699" s="52"/>
     </row>
     <row r="700" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C700" s="55"/>
+      <c r="C700" s="52"/>
     </row>
     <row r="701" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C701" s="55"/>
+      <c r="C701" s="52"/>
     </row>
     <row r="702" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C702" s="55"/>
+      <c r="C702" s="52"/>
     </row>
     <row r="703" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C703" s="55"/>
+      <c r="C703" s="52"/>
     </row>
     <row r="704" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C704" s="55"/>
+      <c r="C704" s="52"/>
     </row>
     <row r="705" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C705" s="55"/>
+      <c r="C705" s="52"/>
     </row>
     <row r="706" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C706" s="55"/>
+      <c r="C706" s="52"/>
     </row>
     <row r="707" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C707" s="55"/>
+      <c r="C707" s="52"/>
     </row>
     <row r="708" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C708" s="55"/>
+      <c r="C708" s="52"/>
     </row>
     <row r="709" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C709" s="55"/>
+      <c r="C709" s="52"/>
     </row>
     <row r="710" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C710" s="55"/>
+      <c r="C710" s="52"/>
     </row>
     <row r="711" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C711" s="55"/>
+      <c r="C711" s="52"/>
     </row>
     <row r="712" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C712" s="55"/>
+      <c r="C712" s="52"/>
     </row>
     <row r="713" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C713" s="55"/>
+      <c r="C713" s="52"/>
     </row>
     <row r="714" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C714" s="55"/>
+      <c r="C714" s="52"/>
     </row>
     <row r="715" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C715" s="55"/>
+      <c r="C715" s="52"/>
     </row>
     <row r="716" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C716" s="55"/>
+      <c r="C716" s="52"/>
     </row>
     <row r="717" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C717" s="55"/>
+      <c r="C717" s="52"/>
     </row>
     <row r="718" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C718" s="55"/>
+      <c r="C718" s="52"/>
     </row>
     <row r="719" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C719" s="55"/>
+      <c r="C719" s="52"/>
     </row>
     <row r="720" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C720" s="55"/>
+      <c r="C720" s="52"/>
     </row>
     <row r="721" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C721" s="55"/>
+      <c r="C721" s="52"/>
     </row>
     <row r="722" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C722" s="55"/>
+      <c r="C722" s="52"/>
     </row>
     <row r="723" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C723" s="55"/>
+      <c r="C723" s="52"/>
     </row>
     <row r="724" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C724" s="55"/>
+      <c r="C724" s="52"/>
     </row>
     <row r="725" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C725" s="55"/>
+      <c r="C725" s="52"/>
     </row>
     <row r="726" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C726" s="55"/>
+      <c r="C726" s="52"/>
     </row>
     <row r="727" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C727" s="55"/>
+      <c r="C727" s="52"/>
     </row>
     <row r="728" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C728" s="55"/>
+      <c r="C728" s="52"/>
     </row>
     <row r="729" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C729" s="55"/>
+      <c r="C729" s="52"/>
     </row>
     <row r="730" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C730" s="55"/>
+      <c r="C730" s="52"/>
     </row>
     <row r="731" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C731" s="55"/>
+      <c r="C731" s="52"/>
     </row>
     <row r="732" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C732" s="55"/>
+      <c r="C732" s="52"/>
     </row>
     <row r="733" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C733" s="55"/>
+      <c r="C733" s="52"/>
     </row>
     <row r="734" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C734" s="55"/>
+      <c r="C734" s="52"/>
     </row>
     <row r="735" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C735" s="55"/>
+      <c r="C735" s="52"/>
     </row>
     <row r="736" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C736" s="55"/>
+      <c r="C736" s="52"/>
     </row>
     <row r="737" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C737" s="55"/>
+      <c r="C737" s="52"/>
     </row>
     <row r="738" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C738" s="55"/>
+      <c r="C738" s="52"/>
     </row>
     <row r="739" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C739" s="55"/>
+      <c r="C739" s="52"/>
     </row>
     <row r="740" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C740" s="55"/>
+      <c r="C740" s="52"/>
     </row>
     <row r="741" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C741" s="55"/>
+      <c r="C741" s="52"/>
     </row>
     <row r="742" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C742" s="55"/>
+      <c r="C742" s="52"/>
     </row>
     <row r="743" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C743" s="55"/>
+      <c r="C743" s="52"/>
     </row>
     <row r="744" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C744" s="55"/>
+      <c r="C744" s="52"/>
     </row>
     <row r="745" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C745" s="55"/>
+      <c r="C745" s="52"/>
     </row>
     <row r="746" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C746" s="55"/>
+      <c r="C746" s="52"/>
     </row>
     <row r="747" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C747" s="55"/>
+      <c r="C747" s="52"/>
     </row>
     <row r="748" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C748" s="55"/>
+      <c r="C748" s="52"/>
     </row>
     <row r="749" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C749" s="55"/>
+      <c r="C749" s="52"/>
     </row>
     <row r="750" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C750" s="55"/>
+      <c r="C750" s="52"/>
     </row>
     <row r="751" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C751" s="55"/>
+      <c r="C751" s="52"/>
     </row>
     <row r="752" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C752" s="55"/>
+      <c r="C752" s="52"/>
     </row>
     <row r="753" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C753" s="55"/>
+      <c r="C753" s="52"/>
     </row>
     <row r="754" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C754" s="55"/>
+      <c r="C754" s="52"/>
     </row>
     <row r="755" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C755" s="55"/>
+      <c r="C755" s="52"/>
     </row>
     <row r="756" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C756" s="55"/>
+      <c r="C756" s="52"/>
     </row>
     <row r="757" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C757" s="55"/>
+      <c r="C757" s="52"/>
     </row>
     <row r="758" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C758" s="55"/>
+      <c r="C758" s="52"/>
     </row>
     <row r="759" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C759" s="55"/>
+      <c r="C759" s="52"/>
     </row>
     <row r="760" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C760" s="55"/>
+      <c r="C760" s="52"/>
     </row>
     <row r="761" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C761" s="55"/>
+      <c r="C761" s="52"/>
     </row>
     <row r="762" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C762" s="55"/>
+      <c r="C762" s="52"/>
     </row>
     <row r="763" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C763" s="55"/>
+      <c r="C763" s="52"/>
     </row>
     <row r="764" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C764" s="55"/>
+      <c r="C764" s="52"/>
     </row>
     <row r="765" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C765" s="55"/>
+      <c r="C765" s="52"/>
     </row>
     <row r="766" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C766" s="55"/>
+      <c r="C766" s="52"/>
     </row>
     <row r="767" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C767" s="55"/>
+      <c r="C767" s="52"/>
     </row>
     <row r="768" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C768" s="55"/>
+      <c r="C768" s="52"/>
     </row>
     <row r="769" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C769" s="55"/>
+      <c r="C769" s="52"/>
     </row>
     <row r="770" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C770" s="55"/>
+      <c r="C770" s="52"/>
     </row>
     <row r="771" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C771" s="55"/>
+      <c r="C771" s="52"/>
     </row>
     <row r="772" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C772" s="55"/>
+      <c r="C772" s="52"/>
     </row>
     <row r="773" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C773" s="55"/>
+      <c r="C773" s="52"/>
     </row>
     <row r="774" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C774" s="55"/>
+      <c r="C774" s="52"/>
     </row>
     <row r="775" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C775" s="55"/>
+      <c r="C775" s="52"/>
     </row>
     <row r="776" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C776" s="55"/>
+      <c r="C776" s="52"/>
     </row>
     <row r="777" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C777" s="55"/>
+      <c r="C777" s="52"/>
     </row>
     <row r="778" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C778" s="55"/>
+      <c r="C778" s="52"/>
     </row>
     <row r="779" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C779" s="55"/>
+      <c r="C779" s="52"/>
     </row>
     <row r="780" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C780" s="55"/>
+      <c r="C780" s="52"/>
     </row>
     <row r="781" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C781" s="55"/>
+      <c r="C781" s="52"/>
     </row>
     <row r="782" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C782" s="55"/>
+      <c r="C782" s="52"/>
     </row>
     <row r="783" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C783" s="55"/>
+      <c r="C783" s="52"/>
     </row>
     <row r="784" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C784" s="55"/>
+      <c r="C784" s="52"/>
     </row>
     <row r="785" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C785" s="55"/>
+      <c r="C785" s="52"/>
     </row>
     <row r="786" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C786" s="55"/>
+      <c r="C786" s="52"/>
     </row>
     <row r="787" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C787" s="55"/>
+      <c r="C787" s="52"/>
     </row>
     <row r="788" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C788" s="55"/>
+      <c r="C788" s="52"/>
     </row>
     <row r="789" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C789" s="55"/>
+      <c r="C789" s="52"/>
     </row>
     <row r="790" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C790" s="55"/>
+      <c r="C790" s="52"/>
     </row>
     <row r="791" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C791" s="55"/>
+      <c r="C791" s="52"/>
     </row>
     <row r="792" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C792" s="55"/>
+      <c r="C792" s="52"/>
     </row>
     <row r="793" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C793" s="55"/>
+      <c r="C793" s="52"/>
     </row>
     <row r="794" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C794" s="55"/>
+      <c r="C794" s="52"/>
     </row>
     <row r="795" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C795" s="55"/>
+      <c r="C795" s="52"/>
     </row>
     <row r="796" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C796" s="55"/>
+      <c r="C796" s="52"/>
     </row>
     <row r="797" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C797" s="55"/>
+      <c r="C797" s="52"/>
     </row>
     <row r="798" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C798" s="55"/>
+      <c r="C798" s="52"/>
     </row>
     <row r="799" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C799" s="55"/>
+      <c r="C799" s="52"/>
     </row>
     <row r="800" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C800" s="55"/>
+      <c r="C800" s="52"/>
     </row>
     <row r="801" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C801" s="55"/>
+      <c r="C801" s="52"/>
     </row>
     <row r="802" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C802" s="55"/>
+      <c r="C802" s="52"/>
     </row>
     <row r="803" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C803" s="55"/>
+      <c r="C803" s="52"/>
     </row>
     <row r="804" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C804" s="55"/>
+      <c r="C804" s="52"/>
     </row>
     <row r="805" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C805" s="55"/>
+      <c r="C805" s="52"/>
     </row>
     <row r="806" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C806" s="55"/>
+      <c r="C806" s="52"/>
     </row>
     <row r="807" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C807" s="55"/>
+      <c r="C807" s="52"/>
     </row>
     <row r="808" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C808" s="55"/>
+      <c r="C808" s="52"/>
     </row>
     <row r="809" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C809" s="55"/>
+      <c r="C809" s="52"/>
     </row>
     <row r="810" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C810" s="55"/>
+      <c r="C810" s="52"/>
     </row>
     <row r="811" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C811" s="55"/>
+      <c r="C811" s="52"/>
     </row>
     <row r="812" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C812" s="55"/>
+      <c r="C812" s="52"/>
     </row>
     <row r="813" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C813" s="55"/>
+      <c r="C813" s="52"/>
     </row>
     <row r="814" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C814" s="55"/>
+      <c r="C814" s="52"/>
     </row>
     <row r="815" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C815" s="55"/>
+      <c r="C815" s="52"/>
     </row>
     <row r="816" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C816" s="55"/>
+      <c r="C816" s="52"/>
     </row>
     <row r="817" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C817" s="55"/>
+      <c r="C817" s="52"/>
     </row>
     <row r="818" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C818" s="55"/>
+      <c r="C818" s="52"/>
     </row>
     <row r="819" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C819" s="55"/>
+      <c r="C819" s="52"/>
     </row>
     <row r="820" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C820" s="55"/>
+      <c r="C820" s="52"/>
     </row>
     <row r="821" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C821" s="55"/>
+      <c r="C821" s="52"/>
     </row>
     <row r="822" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C822" s="55"/>
+      <c r="C822" s="52"/>
     </row>
     <row r="823" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C823" s="55"/>
+      <c r="C823" s="52"/>
     </row>
     <row r="824" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C824" s="55"/>
+      <c r="C824" s="52"/>
     </row>
     <row r="825" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C825" s="55"/>
+      <c r="C825" s="52"/>
     </row>
     <row r="826" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C826" s="55"/>
+      <c r="C826" s="52"/>
     </row>
     <row r="827" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C827" s="55"/>
+      <c r="C827" s="52"/>
     </row>
     <row r="828" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C828" s="55"/>
+      <c r="C828" s="52"/>
     </row>
     <row r="829" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C829" s="55"/>
+      <c r="C829" s="52"/>
     </row>
     <row r="830" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C830" s="55"/>
+      <c r="C830" s="52"/>
     </row>
     <row r="831" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C831" s="55"/>
+      <c r="C831" s="52"/>
     </row>
     <row r="832" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C832" s="55"/>
+      <c r="C832" s="52"/>
     </row>
     <row r="833" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C833" s="55"/>
+      <c r="C833" s="52"/>
     </row>
     <row r="834" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C834" s="55"/>
+      <c r="C834" s="52"/>
     </row>
     <row r="835" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C835" s="55"/>
+      <c r="C835" s="52"/>
     </row>
     <row r="836" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C836" s="55"/>
+      <c r="C836" s="52"/>
     </row>
     <row r="837" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C837" s="55"/>
+      <c r="C837" s="52"/>
     </row>
     <row r="838" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C838" s="55"/>
+      <c r="C838" s="52"/>
     </row>
     <row r="839" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C839" s="55"/>
+      <c r="C839" s="52"/>
     </row>
     <row r="840" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C840" s="55"/>
+      <c r="C840" s="52"/>
     </row>
     <row r="841" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C841" s="55"/>
+      <c r="C841" s="52"/>
     </row>
     <row r="842" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C842" s="55"/>
+      <c r="C842" s="52"/>
     </row>
     <row r="843" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C843" s="55"/>
+      <c r="C843" s="52"/>
     </row>
     <row r="844" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C844" s="55"/>
+      <c r="C844" s="52"/>
     </row>
     <row r="845" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C845" s="55"/>
+      <c r="C845" s="52"/>
     </row>
     <row r="846" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C846" s="55"/>
+      <c r="C846" s="52"/>
     </row>
     <row r="847" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C847" s="55"/>
+      <c r="C847" s="52"/>
     </row>
     <row r="848" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C848" s="55"/>
+      <c r="C848" s="52"/>
     </row>
     <row r="849" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C849" s="55"/>
+      <c r="C849" s="52"/>
     </row>
     <row r="850" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C850" s="55"/>
+      <c r="C850" s="52"/>
     </row>
     <row r="851" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C851" s="55"/>
+      <c r="C851" s="52"/>
     </row>
     <row r="852" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C852" s="55"/>
+      <c r="C852" s="52"/>
     </row>
     <row r="853" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C853" s="55"/>
+      <c r="C853" s="52"/>
     </row>
     <row r="854" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C854" s="55"/>
+      <c r="C854" s="52"/>
     </row>
     <row r="855" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C855" s="55"/>
+      <c r="C855" s="52"/>
     </row>
     <row r="856" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C856" s="55"/>
+      <c r="C856" s="52"/>
     </row>
     <row r="857" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C857" s="55"/>
+      <c r="C857" s="52"/>
     </row>
     <row r="858" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C858" s="55"/>
+      <c r="C858" s="52"/>
     </row>
     <row r="859" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C859" s="55"/>
+      <c r="C859" s="52"/>
     </row>
     <row r="860" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C860" s="55"/>
+      <c r="C860" s="52"/>
     </row>
     <row r="861" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C861" s="55"/>
+      <c r="C861" s="52"/>
     </row>
     <row r="862" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C862" s="55"/>
+      <c r="C862" s="52"/>
     </row>
     <row r="863" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C863" s="55"/>
+      <c r="C863" s="52"/>
     </row>
     <row r="864" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C864" s="55"/>
+      <c r="C864" s="52"/>
     </row>
     <row r="865" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C865" s="55"/>
+      <c r="C865" s="52"/>
     </row>
     <row r="866" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C866" s="55"/>
+      <c r="C866" s="52"/>
     </row>
     <row r="867" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C867" s="55"/>
+      <c r="C867" s="52"/>
     </row>
     <row r="868" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C868" s="55"/>
+      <c r="C868" s="52"/>
     </row>
     <row r="869" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C869" s="55"/>
+      <c r="C869" s="52"/>
     </row>
     <row r="870" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C870" s="55"/>
+      <c r="C870" s="52"/>
     </row>
     <row r="871" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C871" s="55"/>
+      <c r="C871" s="52"/>
     </row>
     <row r="872" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C872" s="55"/>
+      <c r="C872" s="52"/>
     </row>
     <row r="873" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C873" s="55"/>
+      <c r="C873" s="52"/>
     </row>
     <row r="874" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C874" s="55"/>
+      <c r="C874" s="52"/>
     </row>
     <row r="875" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C875" s="55"/>
+      <c r="C875" s="52"/>
     </row>
     <row r="876" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C876" s="55"/>
+      <c r="C876" s="52"/>
     </row>
     <row r="877" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C877" s="55"/>
+      <c r="C877" s="52"/>
     </row>
     <row r="878" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C878" s="55"/>
+      <c r="C878" s="52"/>
     </row>
     <row r="879" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C879" s="55"/>
+      <c r="C879" s="52"/>
     </row>
     <row r="880" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C880" s="55"/>
+      <c r="C880" s="52"/>
     </row>
     <row r="881" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C881" s="55"/>
+      <c r="C881" s="52"/>
     </row>
     <row r="882" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C882" s="55"/>
+      <c r="C882" s="52"/>
     </row>
     <row r="883" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C883" s="55"/>
+      <c r="C883" s="52"/>
     </row>
     <row r="884" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C884" s="55"/>
+      <c r="C884" s="52"/>
     </row>
     <row r="885" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C885" s="55"/>
+      <c r="C885" s="52"/>
     </row>
     <row r="886" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C886" s="55"/>
+      <c r="C886" s="52"/>
     </row>
     <row r="887" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C887" s="55"/>
+      <c r="C887" s="52"/>
     </row>
     <row r="888" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C888" s="55"/>
+      <c r="C888" s="52"/>
     </row>
     <row r="889" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C889" s="55"/>
+      <c r="C889" s="52"/>
     </row>
     <row r="890" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C890" s="55"/>
+      <c r="C890" s="52"/>
     </row>
     <row r="891" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C891" s="55"/>
+      <c r="C891" s="52"/>
     </row>
     <row r="892" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C892" s="55"/>
+      <c r="C892" s="52"/>
     </row>
     <row r="893" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C893" s="55"/>
+      <c r="C893" s="52"/>
     </row>
     <row r="894" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C894" s="55"/>
+      <c r="C894" s="52"/>
     </row>
     <row r="895" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C895" s="55"/>
+      <c r="C895" s="52"/>
     </row>
     <row r="896" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C896" s="55"/>
+      <c r="C896" s="52"/>
     </row>
     <row r="897" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C897" s="55"/>
+      <c r="C897" s="52"/>
     </row>
     <row r="898" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C898" s="55"/>
+      <c r="C898" s="52"/>
     </row>
     <row r="899" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C899" s="55"/>
+      <c r="C899" s="52"/>
     </row>
     <row r="900" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C900" s="55"/>
+      <c r="C900" s="52"/>
     </row>
     <row r="901" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C901" s="55"/>
+      <c r="C901" s="52"/>
     </row>
     <row r="902" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C902" s="55"/>
+      <c r="C902" s="52"/>
     </row>
     <row r="903" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C903" s="55"/>
+      <c r="C903" s="52"/>
     </row>
     <row r="904" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C904" s="55"/>
+      <c r="C904" s="52"/>
     </row>
     <row r="905" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C905" s="55"/>
+      <c r="C905" s="52"/>
     </row>
     <row r="906" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C906" s="55"/>
+      <c r="C906" s="52"/>
     </row>
     <row r="907" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C907" s="55"/>
+      <c r="C907" s="52"/>
     </row>
     <row r="908" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C908" s="55"/>
+      <c r="C908" s="52"/>
     </row>
     <row r="909" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C909" s="55"/>
+      <c r="C909" s="52"/>
     </row>
     <row r="910" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C910" s="55"/>
+      <c r="C910" s="52"/>
     </row>
     <row r="911" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C911" s="55"/>
+      <c r="C911" s="52"/>
     </row>
     <row r="912" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C912" s="55"/>
+      <c r="C912" s="52"/>
     </row>
     <row r="913" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C913" s="55"/>
+      <c r="C913" s="52"/>
     </row>
     <row r="914" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C914" s="55"/>
+      <c r="C914" s="52"/>
     </row>
     <row r="915" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C915" s="55"/>
+      <c r="C915" s="52"/>
     </row>
     <row r="916" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C916" s="55"/>
+      <c r="C916" s="52"/>
     </row>
     <row r="917" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C917" s="55"/>
+      <c r="C917" s="52"/>
     </row>
     <row r="918" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C918" s="55"/>
+      <c r="C918" s="52"/>
     </row>
     <row r="919" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C919" s="55"/>
+      <c r="C919" s="52"/>
     </row>
     <row r="920" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C920" s="55"/>
+      <c r="C920" s="52"/>
     </row>
     <row r="921" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C921" s="55"/>
+      <c r="C921" s="52"/>
     </row>
     <row r="922" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C922" s="55"/>
+      <c r="C922" s="52"/>
     </row>
     <row r="923" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C923" s="55"/>
+      <c r="C923" s="52"/>
     </row>
     <row r="924" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C924" s="55"/>
+      <c r="C924" s="52"/>
     </row>
     <row r="925" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C925" s="55"/>
+      <c r="C925" s="52"/>
     </row>
     <row r="926" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C926" s="55"/>
+      <c r="C926" s="52"/>
     </row>
     <row r="927" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C927" s="55"/>
+      <c r="C927" s="52"/>
     </row>
     <row r="928" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C928" s="55"/>
+      <c r="C928" s="52"/>
     </row>
     <row r="929" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C929" s="55"/>
+      <c r="C929" s="52"/>
     </row>
     <row r="930" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C930" s="55"/>
+      <c r="C930" s="52"/>
     </row>
     <row r="931" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C931" s="55"/>
+      <c r="C931" s="52"/>
     </row>
     <row r="932" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C932" s="55"/>
+      <c r="C932" s="52"/>
     </row>
     <row r="933" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C933" s="55"/>
+      <c r="C933" s="52"/>
     </row>
     <row r="934" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C934" s="55"/>
+      <c r="C934" s="52"/>
     </row>
     <row r="935" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C935" s="55"/>
+      <c r="C935" s="52"/>
     </row>
     <row r="936" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C936" s="55"/>
+      <c r="C936" s="52"/>
     </row>
     <row r="937" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C937" s="55"/>
+      <c r="C937" s="52"/>
     </row>
     <row r="938" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C938" s="55"/>
+      <c r="C938" s="52"/>
     </row>
     <row r="939" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C939" s="55"/>
+      <c r="C939" s="52"/>
     </row>
     <row r="940" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C940" s="55"/>
+      <c r="C940" s="52"/>
     </row>
     <row r="941" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C941" s="55"/>
+      <c r="C941" s="52"/>
     </row>
     <row r="942" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C942" s="55"/>
+      <c r="C942" s="52"/>
     </row>
     <row r="943" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C943" s="55"/>
+      <c r="C943" s="52"/>
     </row>
     <row r="944" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C944" s="55"/>
+      <c r="C944" s="52"/>
     </row>
     <row r="945" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C945" s="55"/>
+      <c r="C945" s="52"/>
     </row>
     <row r="946" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C946" s="55"/>
+      <c r="C946" s="52"/>
     </row>
     <row r="947" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C947" s="55"/>
+      <c r="C947" s="52"/>
     </row>
     <row r="948" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C948" s="55"/>
+      <c r="C948" s="52"/>
     </row>
     <row r="949" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C949" s="55"/>
+      <c r="C949" s="52"/>
     </row>
     <row r="950" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C950" s="55"/>
+      <c r="C950" s="52"/>
     </row>
     <row r="951" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C951" s="55"/>
+      <c r="C951" s="52"/>
     </row>
     <row r="952" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C952" s="55"/>
+      <c r="C952" s="52"/>
     </row>
     <row r="953" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C953" s="55"/>
+      <c r="C953" s="52"/>
     </row>
     <row r="954" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C954" s="55"/>
+      <c r="C954" s="52"/>
     </row>
     <row r="955" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C955" s="55"/>
+      <c r="C955" s="52"/>
     </row>
     <row r="956" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C956" s="55"/>
+      <c r="C956" s="52"/>
     </row>
     <row r="957" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C957" s="55"/>
+      <c r="C957" s="52"/>
     </row>
     <row r="958" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C958" s="55"/>
+      <c r="C958" s="52"/>
     </row>
     <row r="959" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C959" s="55"/>
+      <c r="C959" s="52"/>
     </row>
     <row r="960" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C960" s="55"/>
+      <c r="C960" s="52"/>
     </row>
     <row r="961" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C961" s="55"/>
+      <c r="C961" s="52"/>
     </row>
     <row r="962" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C962" s="55"/>
+      <c r="C962" s="52"/>
     </row>
     <row r="963" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C963" s="55"/>
+      <c r="C963" s="52"/>
     </row>
     <row r="964" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C964" s="55"/>
+      <c r="C964" s="52"/>
     </row>
     <row r="965" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C965" s="55"/>
+      <c r="C965" s="52"/>
     </row>
     <row r="966" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C966" s="55"/>
+      <c r="C966" s="52"/>
     </row>
     <row r="967" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C967" s="55"/>
+      <c r="C967" s="52"/>
     </row>
     <row r="968" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C968" s="55"/>
+      <c r="C968" s="52"/>
     </row>
     <row r="969" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C969" s="55"/>
+      <c r="C969" s="52"/>
     </row>
     <row r="970" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C970" s="55"/>
+      <c r="C970" s="52"/>
     </row>
     <row r="971" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C971" s="55"/>
+      <c r="C971" s="52"/>
     </row>
     <row r="972" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C972" s="55"/>
+      <c r="C972" s="52"/>
     </row>
     <row r="973" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C973" s="55"/>
+      <c r="C973" s="52"/>
     </row>
     <row r="974" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C974" s="55"/>
+      <c r="C974" s="52"/>
     </row>
     <row r="975" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C975" s="55"/>
+      <c r="C975" s="52"/>
     </row>
     <row r="976" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C976" s="55"/>
+      <c r="C976" s="52"/>
     </row>
     <row r="977" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C977" s="55"/>
+      <c r="C977" s="52"/>
     </row>
     <row r="978" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C978" s="55"/>
+      <c r="C978" s="52"/>
     </row>
     <row r="979" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C979" s="55"/>
+      <c r="C979" s="52"/>
     </row>
     <row r="980" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C980" s="55"/>
+      <c r="C980" s="52"/>
     </row>
     <row r="981" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C981" s="55"/>
+      <c r="C981" s="52"/>
     </row>
     <row r="982" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C982" s="55"/>
+      <c r="C982" s="52"/>
     </row>
     <row r="983" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C983" s="55"/>
+      <c r="C983" s="52"/>
     </row>
     <row r="984" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C984" s="55"/>
+      <c r="C984" s="52"/>
     </row>
     <row r="985" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C985" s="55"/>
+      <c r="C985" s="52"/>
     </row>
     <row r="986" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C986" s="55"/>
+      <c r="C986" s="52"/>
     </row>
     <row r="987" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C987" s="55"/>
+      <c r="C987" s="52"/>
     </row>
     <row r="988" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C988" s="55"/>
+      <c r="C988" s="52"/>
     </row>
     <row r="989" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C989" s="55"/>
+      <c r="C989" s="52"/>
     </row>
     <row r="990" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C990" s="55"/>
+      <c r="C990" s="52"/>
     </row>
     <row r="991" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C991" s="55"/>
+      <c r="C991" s="52"/>
     </row>
     <row r="992" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C992" s="55"/>
+      <c r="C992" s="52"/>
     </row>
     <row r="993" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C993" s="55"/>
+      <c r="C993" s="52"/>
     </row>
     <row r="994" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C994" s="55"/>
+      <c r="C994" s="52"/>
     </row>
     <row r="995" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C995" s="55"/>
+      <c r="C995" s="52"/>
     </row>
     <row r="996" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C996" s="55"/>
+      <c r="C996" s="52"/>
     </row>
     <row r="997" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C997" s="55"/>
+      <c r="C997" s="52"/>
     </row>
     <row r="998" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C998" s="55"/>
+      <c r="C998" s="52"/>
     </row>
     <row r="999" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C999" s="55"/>
+      <c r="C999" s="52"/>
     </row>
     <row r="1000" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1000" s="55"/>
+      <c r="C1000" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6433,26 +6488,26 @@
   </sheetPr>
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:G155"/>
+    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="40.5" style="22" customWidth="1"/>
-    <col min="5" max="5" width="51.6640625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="31.5" style="23" customWidth="1"/>
-    <col min="7" max="7" width="50.1640625" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="14.5" style="22"/>
+    <col min="1" max="1" width="14.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="40.5" style="19" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="31.5" style="20" customWidth="1"/>
+    <col min="7" max="7" width="50.1640625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="14.5" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -6461,837 +6516,837 @@
       <c r="D1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+    <row r="2" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="28" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:7" s="27" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A6" s="31" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" s="24" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-    </row>
-    <row r="7" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="28" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="1:7" s="27" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" s="24" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A8" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" spans="1:7" s="27" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" s="24" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A9" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="24" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26" t="s">
+    <row r="10" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="28" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26" t="s">
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="28" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26" t="s">
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="28" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26" t="s">
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="23" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26" t="s">
+    <row r="14" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="23" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26" t="s">
+    <row r="15" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26" t="s">
+      <c r="F15" s="25"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26" t="s">
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="28" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26" t="s">
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="28" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="G19" s="26"/>
-    </row>
-    <row r="20" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26" t="s">
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" spans="1:7" s="27" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26" t="s">
+      <c r="F20" s="25"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="1:7" s="24" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="26" t="s">
+      <c r="F22" s="25"/>
+      <c r="G22" s="23" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="26"/>
-    </row>
-    <row r="24" spans="1:7" s="27" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26" t="s">
+    <row r="23" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" s="24" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="26" t="s">
+      <c r="F24" s="25"/>
+      <c r="G24" s="23" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35" t="s">
+    <row r="25" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="35"/>
-    </row>
-    <row r="26" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26" t="s">
+      <c r="F25" s="33"/>
+      <c r="G25" s="32"/>
+    </row>
+    <row r="26" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="26"/>
-    </row>
-    <row r="27" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="26"/>
-    </row>
-    <row r="28" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35" t="s">
+      <c r="E26" s="23"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="35"/>
-    </row>
-    <row r="29" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35" t="s">
+      <c r="F28" s="33"/>
+      <c r="G28" s="32"/>
+    </row>
+    <row r="29" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="F29" s="36"/>
-      <c r="G29" s="35"/>
-    </row>
-    <row r="30" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="35" t="s">
+      <c r="F29" s="33"/>
+      <c r="G29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A30" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="35"/>
-    </row>
-    <row r="31" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35" t="s">
+      <c r="F30" s="33"/>
+      <c r="G30" s="32"/>
+    </row>
+    <row r="31" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="35" t="s">
+      <c r="E31" s="32"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="32" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="38" t="s">
+    <row r="32" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A33" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="26"/>
-    </row>
-    <row r="34" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="38" t="s">
+      <c r="E33" s="23"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A34" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="26"/>
-    </row>
-    <row r="35" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="38" t="s">
+      <c r="E34" s="23"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A35" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="26"/>
-    </row>
-    <row r="36" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A36" s="38" t="s">
+      <c r="E35" s="23"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A36" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="26"/>
-    </row>
-    <row r="37" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="26"/>
-    </row>
-    <row r="38" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="39" t="s">
+      <c r="E36" s="23"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="23"/>
+    </row>
+    <row r="38" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A38" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="40"/>
-    </row>
-    <row r="39" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26" t="s">
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="37"/>
+    </row>
+    <row r="39" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="26"/>
-    </row>
-    <row r="40" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42" t="s">
+      <c r="E39" s="23"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="F40" s="44"/>
-      <c r="G40" s="42"/>
-    </row>
-    <row r="41" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="45"/>
-    </row>
-    <row r="42" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A42" s="46"/>
-      <c r="B42" s="40" t="s">
+      <c r="F40" s="41"/>
+      <c r="G40" s="39"/>
+    </row>
+    <row r="41" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="42"/>
+    </row>
+    <row r="42" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A42" s="43"/>
+      <c r="B42" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="46"/>
-    </row>
-    <row r="43" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="46"/>
-      <c r="B43" s="40" t="s">
+      <c r="E42" s="43"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="43"/>
+    </row>
+    <row r="43" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A43" s="43"/>
+      <c r="B43" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="E43" s="46"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="46"/>
-    </row>
-    <row r="44" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="46"/>
-      <c r="B44" s="40" t="s">
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="43"/>
+    </row>
+    <row r="44" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A44" s="43"/>
+      <c r="B44" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="E44" s="46"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="46"/>
-    </row>
-    <row r="45" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A45" s="46"/>
-      <c r="B45" s="40" t="s">
+      <c r="E44" s="43"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="43"/>
+    </row>
+    <row r="45" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A45" s="43"/>
+      <c r="B45" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="E45" s="46"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="46"/>
-    </row>
-    <row r="46" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A46" s="46"/>
-      <c r="B46" s="40" t="s">
+      <c r="E45" s="43"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="43"/>
+    </row>
+    <row r="46" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A46" s="43"/>
+      <c r="B46" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="E46" s="46"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="46"/>
-    </row>
-    <row r="47" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F47" s="45"/>
-    </row>
-    <row r="48" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="48"/>
-      <c r="B48" s="35" t="s">
+      <c r="E46" s="43"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="43"/>
+    </row>
+    <row r="47" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F47" s="42"/>
+    </row>
+    <row r="48" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A48" s="45"/>
+      <c r="B48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="35" t="s">
+      <c r="E48" s="45"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="32" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A49" s="48"/>
-      <c r="B49" s="35" t="s">
+    <row r="49" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A49" s="45"/>
+      <c r="B49" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="35" t="s">
+      <c r="E49" s="45"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="32" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A50" s="48"/>
-      <c r="B50" s="35" t="s">
+    <row r="50" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A50" s="45"/>
+      <c r="B50" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="35" t="s">
+      <c r="E50" s="45"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="32" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="48"/>
-      <c r="B51" s="35" t="s">
+    <row r="51" spans="1:7" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A51" s="45"/>
+      <c r="B51" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="35" t="s">
+      <c r="E51" s="45"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="32" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="24"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="54" t="s">
         <v>381</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="D53" s="58" t="s">
+      <c r="D53" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58">
+      <c r="E53" s="54"/>
+      <c r="F53" s="54">
         <v>1</v>
       </c>
-      <c r="G53" s="58"/>
+      <c r="G53" s="54"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="54" t="s">
         <v>381</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="54" t="s">
         <v>383</v>
       </c>
-      <c r="D54" s="58" t="s">
+      <c r="D54" s="54" t="s">
         <v>333</v>
       </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58">
+      <c r="E54" s="54"/>
+      <c r="F54" s="54">
         <v>1</v>
       </c>
-      <c r="G54" s="58"/>
+      <c r="G54" s="54"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
@@ -7313,42 +7368,42 @@
       <c r="G55"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="54" t="s">
         <v>385</v>
       </c>
-      <c r="D56" s="58" t="s">
+      <c r="D56" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58">
+      <c r="E56" s="54"/>
+      <c r="F56" s="54">
         <v>1</v>
       </c>
-      <c r="G56" s="58"/>
+      <c r="G56" s="54"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="58" t="s">
+      <c r="A57" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="54" t="s">
         <v>385</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="D57" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58">
+      <c r="E57" s="54"/>
+      <c r="F57" s="54">
         <v>1</v>
       </c>
-      <c r="G57" s="58"/>
+      <c r="G57" s="54"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
@@ -7676,38 +7731,38 @@
       <c r="G74"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="58" t="s">
+      <c r="A75" s="54" t="s">
         <v>325</v>
       </c>
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="54" t="s">
         <v>337</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="54" t="s">
         <v>409</v>
       </c>
-      <c r="D75" s="58" t="s">
+      <c r="D75" s="54" t="s">
         <v>326</v>
       </c>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="58" t="s">
+      <c r="A76" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="B76" s="58" t="s">
+      <c r="B76" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="C76" s="58" t="s">
+      <c r="C76" s="54" t="s">
         <v>410</v>
       </c>
-      <c r="D76" s="58" t="s">
+      <c r="D76" s="54" t="s">
         <v>322</v>
       </c>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="58"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77"/>
@@ -7726,7 +7781,7 @@
     </row>
     <row r="78" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A78"/>
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="55" t="s">
         <v>309</v>
       </c>
       <c r="C78" t="s">
@@ -8441,56 +8496,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04B2544-31BA-4965-9CA9-8987F8FEEC54}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="38.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="18"/>
+    <col min="1" max="1" width="14.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="47.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="38.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="27" t="s">
         <v>210</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -8524,26 +8579,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e9ad02b1-1808-4f55-81c1-02da346030c9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c4d4e922-8223-4f42-92be-35e8d7f6a6aa" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE058F8930E0E241B4560415FE1909FD" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="414c982d8454083604920c1ddce079db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e9ad02b1-1808-4f55-81c1-02da346030c9" xmlns:ns3="c4d4e922-8223-4f42-92be-35e8d7f6a6aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1dad42e4e792508db5539a8268d5ad7" ns2:_="" ns3:_="">
     <xsd:import namespace="e9ad02b1-1808-4f55-81c1-02da346030c9"/>
@@ -8744,32 +8779,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A5C8134-49EE-4027-8A01-927277B0A875}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e9ad02b1-1808-4f55-81c1-02da346030c9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c4d4e922-8223-4f42-92be-35e8d7f6a6aa" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD22262-E87C-4975-87F9-E2C7CB63FED1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="e9ad02b1-1808-4f55-81c1-02da346030c9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c4d4e922-8223-4f42-92be-35e8d7f6a6aa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9618A222-A8E9-4112-A06B-50C8EF418F19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8786,4 +8816,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD22262-E87C-4975-87F9-E2C7CB63FED1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e9ad02b1-1808-4f55-81c1-02da346030c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c4d4e922-8223-4f42-92be-35e8d7f6a6aa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A5C8134-49EE-4027-8A01-927277B0A875}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>